--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vip-Vipr2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vip-Vipr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,19 +525,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.03772637990005</v>
+        <v>1.119963</v>
       </c>
       <c r="H2">
-        <v>1.03772637990005</v>
+        <v>3.359889</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,31 +549,31 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.66581659159215</v>
+        <v>0.1382803333333333</v>
       </c>
       <c r="N2">
-        <v>0.66581659159215</v>
+        <v>0.414841</v>
       </c>
       <c r="O2">
-        <v>0.4263040048747656</v>
+        <v>0.05497238930810543</v>
       </c>
       <c r="P2">
-        <v>0.4263040048747656</v>
+        <v>0.05497238930810543</v>
       </c>
       <c r="Q2">
-        <v>0.6909354412703119</v>
+        <v>0.154868856961</v>
       </c>
       <c r="R2">
-        <v>0.6909354412703119</v>
+        <v>1.393819712649</v>
       </c>
       <c r="S2">
-        <v>0.4263040048747656</v>
+        <v>0.05497238930810543</v>
       </c>
       <c r="T2">
-        <v>0.4263040048747656</v>
+        <v>0.05497238930810543</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,55 +587,117 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1.119963</v>
+      </c>
+      <c r="H3">
+        <v>3.359889</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.696771</v>
+      </c>
+      <c r="N3">
+        <v>2.090313</v>
+      </c>
+      <c r="O3">
+        <v>0.2769964878394223</v>
+      </c>
+      <c r="P3">
+        <v>0.2769964878394223</v>
+      </c>
+      <c r="Q3">
+        <v>0.780357739473</v>
+      </c>
+      <c r="R3">
+        <v>7.023219655257</v>
+      </c>
+      <c r="S3">
+        <v>0.2769964878394223</v>
+      </c>
+      <c r="T3">
+        <v>0.2769964878394223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1.03772637990005</v>
-      </c>
-      <c r="H3">
-        <v>1.03772637990005</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.896018587009434</v>
-      </c>
-      <c r="N3">
-        <v>0.896018587009434</v>
-      </c>
-      <c r="O3">
-        <v>0.5736959951252345</v>
-      </c>
-      <c r="P3">
-        <v>0.5736959951252345</v>
-      </c>
-      <c r="Q3">
-        <v>0.929822124620458</v>
-      </c>
-      <c r="R3">
-        <v>0.929822124620458</v>
-      </c>
-      <c r="S3">
-        <v>0.5736959951252345</v>
-      </c>
-      <c r="T3">
-        <v>0.5736959951252345</v>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.119963</v>
+      </c>
+      <c r="H4">
+        <v>3.359889</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1.680399333333333</v>
+      </c>
+      <c r="N4">
+        <v>5.041198</v>
+      </c>
+      <c r="O4">
+        <v>0.6680311228524723</v>
+      </c>
+      <c r="P4">
+        <v>0.6680311228524722</v>
+      </c>
+      <c r="Q4">
+        <v>1.881985078558</v>
+      </c>
+      <c r="R4">
+        <v>16.937865707022</v>
+      </c>
+      <c r="S4">
+        <v>0.6680311228524723</v>
+      </c>
+      <c r="T4">
+        <v>0.6680311228524722</v>
       </c>
     </row>
   </sheetData>
